--- a/multiple_sources_calculation/in/_template.xlsx
+++ b/multiple_sources_calculation/in/_template.xlsx
@@ -7,8 +7,9 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="cigarettes.xlsx" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="alcohol.xlsx" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="oil.xlsx" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="cigarettes.xlsx" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="alcohol.xlsx" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -80,26 +81,25 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -556,18 +556,42 @@
           <t>2018 год</t>
         </is>
       </c>
-      <c r="C5" s="7" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="5" t="n"/>
-      <c r="G5" s="5" t="n"/>
-      <c r="H5" s="5" t="n"/>
-      <c r="I5" s="5" t="n"/>
-      <c r="J5" s="5" t="n"/>
-      <c r="K5" s="5" t="n"/>
-      <c r="L5" s="5" t="n"/>
-      <c r="M5" s="5" t="n"/>
-      <c r="N5" s="5" t="n"/>
+      <c r="C5" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>162</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>53</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>136</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>90</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>53</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>162</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>79</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row customHeight="1" ht="33" r="6">
       <c r="B6" s="5" t="inlineStr">
@@ -575,18 +599,42 @@
           <t>2019 год</t>
         </is>
       </c>
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="5" t="n"/>
-      <c r="G6" s="5" t="n"/>
-      <c r="H6" s="5" t="n"/>
-      <c r="I6" s="5" t="n"/>
-      <c r="J6" s="5" t="n"/>
-      <c r="K6" s="5" t="n"/>
-      <c r="L6" s="5" t="n"/>
-      <c r="M6" s="5" t="n"/>
-      <c r="N6" s="5" t="n"/>
+      <c r="C6" s="5" t="n">
+        <v>198</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>128</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>88</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>94</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>119</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>144</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>153</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>118</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>144</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row customHeight="1" ht="33" r="7">
       <c r="B7" s="5" t="inlineStr">
@@ -594,10 +642,18 @@
           <t>2020 год</t>
         </is>
       </c>
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
+      <c r="C7" s="5" t="n">
+        <v>92</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>182</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>54</v>
+      </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>х</t>
@@ -812,18 +868,42 @@
           <t>2018 год</t>
         </is>
       </c>
-      <c r="C5" s="7" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="5" t="n"/>
-      <c r="F5" s="5" t="n"/>
-      <c r="G5" s="5" t="n"/>
-      <c r="H5" s="5" t="n"/>
-      <c r="I5" s="5" t="n"/>
-      <c r="J5" s="5" t="n"/>
-      <c r="K5" s="5" t="n"/>
-      <c r="L5" s="5" t="n"/>
-      <c r="M5" s="5" t="n"/>
-      <c r="N5" s="5" t="n"/>
+      <c r="C5" s="5" t="n">
+        <v>90</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>190</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>83</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>93</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>188</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>86</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>194</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row customHeight="1" ht="33" r="6">
       <c r="B6" s="5" t="inlineStr">
@@ -831,18 +911,42 @@
           <t>2019 год</t>
         </is>
       </c>
-      <c r="C6" s="7" t="n"/>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="5" t="n"/>
-      <c r="F6" s="5" t="n"/>
-      <c r="G6" s="5" t="n"/>
-      <c r="H6" s="5" t="n"/>
-      <c r="I6" s="5" t="n"/>
-      <c r="J6" s="5" t="n"/>
-      <c r="K6" s="5" t="n"/>
-      <c r="L6" s="5" t="n"/>
-      <c r="M6" s="5" t="n"/>
-      <c r="N6" s="5" t="n"/>
+      <c r="C6" s="5" t="n">
+        <v>146</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>85</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>194</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>147</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>86</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>133</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>188</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>178</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row customHeight="1" ht="33" r="7">
       <c r="B7" s="5" t="inlineStr">
@@ -850,10 +954,330 @@
           <t>2020 год</t>
         </is>
       </c>
-      <c r="C7" s="7" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
+      <c r="C7" s="5" t="n">
+        <v>186</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>137</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>97</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>189</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>х</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>х</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>х</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>х</t>
+        </is>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>х</t>
+        </is>
+      </c>
+      <c r="L7" s="5" t="inlineStr">
+        <is>
+          <t>х</t>
+        </is>
+      </c>
+      <c r="M7" s="5" t="inlineStr">
+        <is>
+          <t>х</t>
+        </is>
+      </c>
+      <c r="N7" s="5" t="inlineStr">
+        <is>
+          <t>х</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="19.85546875"/>
+    <col customWidth="1" max="2" min="2" width="9.85546875"/>
+    <col customWidth="1" max="3" min="3" width="9.5703125"/>
+    <col customWidth="1" max="4" min="4" width="13"/>
+    <col customWidth="1" max="5" min="5" width="13"/>
+    <col customWidth="1" max="6" min="6" width="13"/>
+    <col customWidth="1" max="7" min="7" width="13"/>
+    <col customWidth="1" max="8" min="8" width="13"/>
+    <col customWidth="1" max="9" min="9" width="13"/>
+    <col customWidth="1" max="10" min="10" width="13"/>
+    <col customWidth="1" max="11" min="11" width="9.7109375"/>
+    <col customWidth="1" max="12" min="12" width="9.5703125"/>
+    <col customWidth="1" max="13" min="13" width="9.85546875"/>
+    <col customWidth="1" max="14" min="14" width="10"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="15.75" r="1">
+      <c r="A1" s="1" t="n"/>
+      <c r="B1" s="1" t="n"/>
+      <c r="C1" s="1" t="n"/>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>Приложение 1</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="56.25" r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Налогооблагаемые объемы реализации алкогольной продукции, 
+с объемной долей спирта этилового свыше 9 % (за исключением вин)
+(КБК 182 1 03 02110 01 0000 110)</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="21.75" r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
+      <c r="I3" s="1" t="n"/>
+      <c r="J3" s="1" t="n"/>
+      <c r="K3" s="1" t="n"/>
+      <c r="L3" s="1" t="n"/>
+      <c r="M3" s="1" t="n"/>
+      <c r="N3" s="4" t="inlineStr">
+        <is>
+          <t>литры безводного спирта</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="21" r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>Регион</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>Год</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>январь</t>
+        </is>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>февраль</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>март</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>апрель</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>май</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>июнь</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>июль</t>
+        </is>
+      </c>
+      <c r="J4" s="5" t="inlineStr">
+        <is>
+          <t>август</t>
+        </is>
+      </c>
+      <c r="K4" s="5" t="inlineStr">
+        <is>
+          <t>сентябрь</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
+          <t>октябрь</t>
+        </is>
+      </c>
+      <c r="M4" s="5" t="inlineStr">
+        <is>
+          <t>ноябрь</t>
+        </is>
+      </c>
+      <c r="N4" s="5" t="inlineStr">
+        <is>
+          <t>декабрь</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="33" r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>Название
+региона, 
+МИ ФНС по КН</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>2018 год</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>170</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>121</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>196</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>169</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>133</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>83</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>161</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="33" r="6">
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>2019 год</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>154</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>163</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>101</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>174</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>133</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>194</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>112</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>90</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="33" r="7">
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>2020 год</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>141</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>136</v>
+      </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>х</t>
